--- a/Symphony/2021/March/All Details/31.03.2021/MC Bank Statement March-2021.xlsx
+++ b/Symphony/2021/March/All Details/31.03.2021/MC Bank Statement March-2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\March\All Details\31.03.2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId4"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +38,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L32" authorId="0">
+    <comment ref="L32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +216,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="D113" authorId="0">
+    <comment ref="D113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D117" authorId="0">
+    <comment ref="D117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,9 +581,6 @@
   </si>
   <si>
     <t>House Rent</t>
-  </si>
-  <si>
-    <t>Etc</t>
   </si>
   <si>
     <t>Amount</t>
@@ -1018,13 +1020,16 @@
   <si>
     <t>Realme (+)</t>
   </si>
+  <si>
+    <t>1% Less</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -2209,14 +2214,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3084,6 +3089,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3111,22 +3128,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3292,7 +3297,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,7 +3309,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3327,14 +3332,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3371,7 +3376,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3388,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3406,14 +3411,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3501,7 +3506,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3518,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3536,14 +3541,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3603,7 +3608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3635,9 +3640,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3669,6 +3675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3844,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3884,7 +3891,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="295"/>
       <c r="B3" s="293" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="293"/>
       <c r="D3" s="293"/>
@@ -3941,7 +3948,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="295"/>
       <c r="B7" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="37">
         <v>245000</v>
@@ -3960,7 +3967,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="295"/>
       <c r="B8" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="37">
         <v>0</v>
@@ -3979,7 +3986,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="295"/>
       <c r="B9" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="37">
         <v>0</v>
@@ -3998,7 +4005,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="295"/>
       <c r="B10" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="40">
         <v>400000</v>
@@ -4017,7 +4024,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="295"/>
       <c r="B11" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="37">
         <v>0</v>
@@ -4036,7 +4043,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="295"/>
       <c r="B12" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="37">
         <v>250000</v>
@@ -4055,7 +4062,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="295"/>
       <c r="B13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="37">
         <v>450000</v>
@@ -4074,7 +4081,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="295"/>
       <c r="B14" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="37">
         <v>300000</v>
@@ -4093,7 +4100,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="295"/>
       <c r="B15" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="37">
         <v>370000</v>
@@ -4989,7 +4996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -5029,7 +5036,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="295"/>
       <c r="B3" s="293" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="293"/>
       <c r="D3" s="293"/>
@@ -5086,7 +5093,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="295"/>
       <c r="B7" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="37">
         <v>245000</v>
@@ -5105,7 +5112,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="295"/>
       <c r="B8" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="37">
         <v>0</v>
@@ -5124,7 +5131,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="295"/>
       <c r="B9" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="37">
         <v>0</v>
@@ -5143,7 +5150,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="295"/>
       <c r="B10" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="40">
         <v>400000</v>
@@ -5162,7 +5169,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="295"/>
       <c r="B11" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="37">
         <v>0</v>
@@ -5181,7 +5188,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="295"/>
       <c r="B12" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="37">
         <v>250000</v>
@@ -5200,7 +5207,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="295"/>
       <c r="B13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="37">
         <v>450000</v>
@@ -5219,7 +5226,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="295"/>
       <c r="B14" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="37">
         <v>300000</v>
@@ -5238,7 +5245,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="295"/>
       <c r="B15" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="37">
         <v>370000</v>
@@ -5257,7 +5264,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="295"/>
       <c r="B16" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="37">
         <v>300000</v>
@@ -5276,7 +5283,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="295"/>
       <c r="B17" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="37">
         <v>0</v>
@@ -5295,7 +5302,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="295"/>
       <c r="B18" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="37">
         <v>900000</v>
@@ -5314,7 +5321,7 @@
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="295"/>
       <c r="B19" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="37">
         <v>400000</v>
@@ -5333,7 +5340,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="295"/>
       <c r="B20" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="37">
         <v>725000</v>
@@ -5352,7 +5359,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="295"/>
       <c r="B21" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="37">
         <v>0</v>
@@ -5371,7 +5378,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="295"/>
       <c r="B22" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="37">
         <v>900000</v>
@@ -5390,7 +5397,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="295"/>
       <c r="B23" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -5409,7 +5416,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="295"/>
       <c r="B24" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="37">
         <v>860000</v>
@@ -5428,7 +5435,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="295"/>
       <c r="B25" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="37">
         <v>570000</v>
@@ -5447,7 +5454,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="295"/>
       <c r="B26" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="37">
         <v>700000</v>
@@ -5466,7 +5473,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="295"/>
       <c r="B27" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="37">
         <v>400000</v>
@@ -5485,7 +5492,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="295"/>
       <c r="B28" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="37">
         <v>400000</v>
@@ -5504,7 +5511,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="295"/>
       <c r="B29" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="37">
         <v>0</v>
@@ -5523,7 +5530,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="295"/>
       <c r="B30" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="37">
         <v>1000000</v>
@@ -5542,7 +5549,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="295"/>
       <c r="B31" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="290">
         <v>122197</v>
@@ -5555,7 +5562,7 @@
         <v>156041</v>
       </c>
       <c r="F31" s="291" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="33"/>
@@ -5563,7 +5570,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="295"/>
       <c r="B32" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="37">
         <v>400000</v>
@@ -5582,7 +5589,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="295"/>
       <c r="B33" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="37">
         <v>0</v>
@@ -5601,7 +5608,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="295"/>
       <c r="B34" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="37">
         <v>1450000</v>
@@ -6248,14 +6255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="18" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="18" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6266,67 +6273,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="301" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="298" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="300"/>
+      <c r="A3" s="302" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="304"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6335,53 +6342,53 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="296" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="305" t="s">
+      <c r="D4" s="296" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="296" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="305" t="s">
+      <c r="G4" s="296" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="305" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="305" t="s">
+      <c r="I4" s="296" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="305" t="s">
+      <c r="L4" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="305" t="s">
+      <c r="M4" s="296" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="305" t="s">
+      <c r="N4" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="298" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="307" t="s">
-        <v>104</v>
+      <c r="P4" s="309" t="s">
+        <v>250</v>
       </c>
       <c r="Q4" s="191" t="s">
         <v>4</v>
@@ -6393,24 +6400,24 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="302"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="308"/>
+      <c r="A5" s="306"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="297"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="297"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="310"/>
       <c r="Q5" s="196" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S5" s="197"/>
       <c r="T5" s="198"/>
@@ -6421,7 +6428,7 @@
     </row>
     <row r="6" spans="1:24" s="21" customFormat="1">
       <c r="A6" s="200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="201">
         <v>300</v>
@@ -6461,7 +6468,7 @@
     </row>
     <row r="7" spans="1:24" s="21" customFormat="1">
       <c r="A7" s="200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="201">
         <v>1500</v>
@@ -6501,7 +6508,7 @@
     </row>
     <row r="8" spans="1:24" s="21" customFormat="1">
       <c r="A8" s="200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="208">
         <v>500</v>
@@ -6538,14 +6545,14 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V8" s="46"/>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="21" customFormat="1">
       <c r="A9" s="200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="208">
         <v>100</v>
@@ -6583,7 +6590,7 @@
     </row>
     <row r="10" spans="1:24" s="21" customFormat="1">
       <c r="A10" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="208">
         <v>1400</v>
@@ -6623,7 +6630,7 @@
     </row>
     <row r="11" spans="1:24" s="21" customFormat="1">
       <c r="A11" s="200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="208">
         <v>1200</v>
@@ -6661,7 +6668,7 @@
     </row>
     <row r="12" spans="1:24" s="21" customFormat="1">
       <c r="A12" s="200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="208">
         <v>500</v>
@@ -6699,7 +6706,7 @@
     </row>
     <row r="13" spans="1:24" s="21" customFormat="1">
       <c r="A13" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="208">
         <v>800</v>
@@ -6743,7 +6750,7 @@
     </row>
     <row r="14" spans="1:24" s="21" customFormat="1">
       <c r="A14" s="200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="208">
         <v>1500</v>
@@ -6783,7 +6790,7 @@
     </row>
     <row r="15" spans="1:24" s="21" customFormat="1">
       <c r="A15" s="200" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="208">
         <v>300</v>
@@ -6827,7 +6834,7 @@
     </row>
     <row r="16" spans="1:24" s="21" customFormat="1">
       <c r="A16" s="200" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="208">
         <v>600</v>
@@ -6867,7 +6874,7 @@
     </row>
     <row r="17" spans="1:23" s="21" customFormat="1">
       <c r="A17" s="200" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="208">
         <v>1300</v>
@@ -6907,7 +6914,7 @@
     </row>
     <row r="18" spans="1:23" s="21" customFormat="1">
       <c r="A18" s="200" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="208">
         <v>500</v>
@@ -6951,7 +6958,7 @@
     </row>
     <row r="19" spans="1:23" s="21" customFormat="1">
       <c r="A19" s="200" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="208">
         <v>500</v>
@@ -6991,7 +6998,7 @@
     </row>
     <row r="20" spans="1:23" s="21" customFormat="1">
       <c r="A20" s="200" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="208"/>
       <c r="C20" s="201"/>
@@ -7023,7 +7030,7 @@
     </row>
     <row r="21" spans="1:23" s="21" customFormat="1">
       <c r="A21" s="200" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="208">
         <v>800</v>
@@ -7059,7 +7066,7 @@
     </row>
     <row r="22" spans="1:23" s="21" customFormat="1">
       <c r="A22" s="200" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="208">
         <v>1200</v>
@@ -7097,7 +7104,7 @@
     </row>
     <row r="23" spans="1:23" s="216" customFormat="1">
       <c r="A23" s="200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="208">
         <v>300</v>
@@ -7133,7 +7140,7 @@
     </row>
     <row r="24" spans="1:23" s="21" customFormat="1">
       <c r="A24" s="200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="208">
         <v>1000</v>
@@ -7176,7 +7183,7 @@
     </row>
     <row r="25" spans="1:23" s="216" customFormat="1">
       <c r="A25" s="200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="208">
         <v>1000</v>
@@ -7212,7 +7219,7 @@
     </row>
     <row r="26" spans="1:23" s="21" customFormat="1">
       <c r="A26" s="200" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="208"/>
       <c r="C26" s="201"/>
@@ -7246,7 +7253,7 @@
     </row>
     <row r="27" spans="1:23" s="21" customFormat="1">
       <c r="A27" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="208">
         <v>1450</v>
@@ -7286,7 +7293,7 @@
     </row>
     <row r="28" spans="1:23" s="21" customFormat="1">
       <c r="A28" s="200" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="208">
         <v>1000</v>
@@ -7324,7 +7331,7 @@
     </row>
     <row r="29" spans="1:23" s="21" customFormat="1">
       <c r="A29" s="200" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="208">
         <v>300</v>
@@ -7362,7 +7369,7 @@
     </row>
     <row r="30" spans="1:23" s="21" customFormat="1">
       <c r="A30" s="200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="208">
         <v>1000</v>
@@ -7400,7 +7407,7 @@
     </row>
     <row r="31" spans="1:23" s="21" customFormat="1">
       <c r="A31" s="200" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="208">
         <v>500</v>
@@ -7437,7 +7444,7 @@
     </row>
     <row r="32" spans="1:23" s="216" customFormat="1">
       <c r="A32" s="200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="208">
         <v>800</v>
@@ -7467,10 +7474,12 @@
       <c r="O32" s="209">
         <v>10000</v>
       </c>
-      <c r="P32" s="211"/>
+      <c r="P32" s="211">
+        <v>2160</v>
+      </c>
       <c r="Q32" s="205">
         <f t="shared" si="0"/>
-        <v>16339</v>
+        <v>18499</v>
       </c>
       <c r="R32" s="215"/>
     </row>
@@ -7568,7 +7577,7 @@
     </row>
     <row r="37" spans="1:18" s="189" customFormat="1" ht="13.5" thickBot="1">
       <c r="A37" s="225" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="226">
         <f>SUM(B6:B36)</f>
@@ -7628,11 +7637,11 @@
       </c>
       <c r="P37" s="228">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2260</v>
       </c>
       <c r="Q37" s="229">
         <f>SUM(Q6:Q36)</f>
-        <v>63075</v>
+        <v>65235</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9635,6 +9644,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9651,9 +9663,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9664,7 +9673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -9755,7 +9764,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="318" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="318"/>
       <c r="C2" s="318"/>
@@ -9951,7 +9960,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="94">
         <v>721735</v>
@@ -10027,7 +10036,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="99">
         <v>201200</v>
@@ -10103,7 +10112,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="99">
         <v>395550</v>
@@ -10179,7 +10188,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="99">
         <v>335820</v>
@@ -10255,7 +10264,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="99">
         <v>306380</v>
@@ -10331,7 +10340,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="99">
         <v>326750</v>
@@ -10407,7 +10416,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="99">
         <v>263055</v>
@@ -10483,7 +10492,7 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="99">
         <v>585600</v>
@@ -10559,7 +10568,7 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="99">
         <v>256480</v>
@@ -10635,7 +10644,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="99">
         <v>322670</v>
@@ -10711,7 +10720,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="99">
         <v>476850</v>
@@ -10787,7 +10796,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="99">
         <v>423710</v>
@@ -10863,7 +10872,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="99">
         <v>447790</v>
@@ -10939,7 +10948,7 @@
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="99">
         <v>734205</v>
@@ -11015,7 +11024,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="99">
         <v>84765</v>
@@ -11091,7 +11100,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="99">
         <v>554425</v>
@@ -11167,7 +11176,7 @@
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="99">
         <v>857520</v>
@@ -11243,7 +11252,7 @@
     </row>
     <row r="22" spans="1:61">
       <c r="A22" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="99">
         <v>504405</v>
@@ -11319,7 +11328,7 @@
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="99">
         <v>395255</v>
@@ -11395,7 +11404,7 @@
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="99">
         <v>282895</v>
@@ -11471,7 +11480,7 @@
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="99">
         <v>314365</v>
@@ -11547,7 +11556,7 @@
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="99">
         <v>680730</v>
@@ -11623,7 +11632,7 @@
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="99">
         <v>793445</v>
@@ -11699,7 +11708,7 @@
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="99">
         <v>348135</v>
@@ -11775,7 +11784,7 @@
     </row>
     <row r="29" spans="1:61">
       <c r="A29" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="99">
         <v>494340</v>
@@ -11851,7 +11860,7 @@
     </row>
     <row r="30" spans="1:61">
       <c r="A30" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="99">
         <v>588010</v>
@@ -11927,7 +11936,7 @@
     </row>
     <row r="31" spans="1:61">
       <c r="A31" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="99">
         <v>395245</v>
@@ -12354,16 +12363,16 @@
     </row>
     <row r="37" spans="1:61">
       <c r="A37" s="158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="269">
         <v>19600</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E37" s="105"/>
       <c r="F37" s="100"/>
@@ -12428,13 +12437,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="269">
         <v>19625</v>
       </c>
       <c r="D38" s="92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="107"/>
@@ -12628,7 +12637,7 @@
       <c r="E41" s="133"/>
       <c r="F41" s="100"/>
       <c r="G41" s="134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" s="134"/>
       <c r="I41" s="263"/>
@@ -12938,14 +12947,14 @@
     </row>
     <row r="46" spans="1:61" ht="13.5" thickTop="1">
       <c r="A46" s="267" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="272"/>
       <c r="C46" s="273">
         <v>11770</v>
       </c>
       <c r="D46" s="268" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E46" s="104"/>
       <c r="F46" s="252"/>
@@ -13006,14 +13015,14 @@
     </row>
     <row r="47" spans="1:61">
       <c r="A47" s="148" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="148"/>
       <c r="C47" s="142">
         <v>15000</v>
       </c>
       <c r="D47" s="146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="252"/>
@@ -13081,7 +13090,7 @@
         <v>7160</v>
       </c>
       <c r="D48" s="268" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="248"/>
@@ -13149,7 +13158,7 @@
         <v>50000</v>
       </c>
       <c r="D49" s="143" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="248"/>
@@ -13217,7 +13226,7 @@
         <v>210035</v>
       </c>
       <c r="D50" s="268" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="248"/>
@@ -13285,7 +13294,7 @@
         <v>265917</v>
       </c>
       <c r="D51" s="143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="96"/>
@@ -13354,7 +13363,7 @@
         <v>63290</v>
       </c>
       <c r="D52" s="140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="248"/>
@@ -13423,7 +13432,7 @@
         <v>55030</v>
       </c>
       <c r="D53" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="97"/>
@@ -13494,7 +13503,7 @@
         <v>336360</v>
       </c>
       <c r="D54" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="248"/>
@@ -13563,7 +13572,7 @@
         <v>477180</v>
       </c>
       <c r="D55" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="96"/>
@@ -13625,14 +13634,14 @@
     </row>
     <row r="56" spans="1:61">
       <c r="A56" s="145" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" s="96"/>
       <c r="C56" s="142">
         <v>38260</v>
       </c>
       <c r="D56" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="96"/>
@@ -13701,7 +13710,7 @@
         <v>186240</v>
       </c>
       <c r="D57" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E57" s="104"/>
       <c r="F57" s="96"/>
@@ -13828,14 +13837,14 @@
     </row>
     <row r="59" spans="1:61">
       <c r="A59" s="145" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59" s="96"/>
       <c r="C59" s="142">
         <v>90000</v>
       </c>
       <c r="D59" s="149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="96"/>
@@ -13897,14 +13906,14 @@
     </row>
     <row r="60" spans="1:61">
       <c r="A60" s="145" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B60" s="96"/>
       <c r="C60" s="142">
         <v>4000</v>
       </c>
       <c r="D60" s="146" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E60" s="104"/>
       <c r="F60" s="96"/>
@@ -14034,7 +14043,7 @@
       <c r="D62" s="149"/>
       <c r="E62" s="113"/>
       <c r="F62" s="311" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G62" s="311"/>
       <c r="H62" s="246"/>
@@ -14115,7 +14124,7 @@
         <v>7160</v>
       </c>
       <c r="J63" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K63" s="166">
         <v>7160</v>
@@ -14176,26 +14185,26 @@
     </row>
     <row r="64" spans="1:61">
       <c r="A64" s="145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="143"/>
       <c r="C64" s="142">
         <v>6535</v>
       </c>
       <c r="D64" s="143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64" s="104"/>
       <c r="F64" s="155"/>
       <c r="G64" s="160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H64" s="160"/>
       <c r="I64" s="97">
         <v>140000</v>
       </c>
       <c r="J64" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K64" s="166">
         <v>140000</v>
@@ -14256,14 +14265,14 @@
     </row>
     <row r="65" spans="1:61">
       <c r="A65" s="145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="143"/>
       <c r="C65" s="142">
         <v>10915</v>
       </c>
       <c r="D65" s="143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E65" s="104"/>
       <c r="F65" s="153"/>
@@ -14275,7 +14284,7 @@
         <v>40000</v>
       </c>
       <c r="J65" s="96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K65" s="166">
         <v>40000</v>
@@ -14336,14 +14345,14 @@
     </row>
     <row r="66" spans="1:61">
       <c r="A66" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B66" s="96"/>
       <c r="C66" s="142">
         <v>44000</v>
       </c>
       <c r="D66" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="104"/>
       <c r="F66" s="158"/>
@@ -14355,7 +14364,7 @@
         <v>325545</v>
       </c>
       <c r="J66" s="159" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K66" s="166">
         <v>325545</v>
@@ -14416,7 +14425,7 @@
     </row>
     <row r="67" spans="1:61">
       <c r="A67" s="145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B67" s="96"/>
       <c r="C67" s="142">
@@ -14435,7 +14444,7 @@
         <v>265917</v>
       </c>
       <c r="J67" s="144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K67" s="166">
         <v>265917</v>
@@ -14496,14 +14505,14 @@
     </row>
     <row r="68" spans="1:61">
       <c r="A68" s="141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B68" s="96"/>
       <c r="C68" s="142">
         <v>5000</v>
       </c>
       <c r="D68" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="104"/>
       <c r="F68" s="153"/>
@@ -14515,7 +14524,7 @@
         <v>63285</v>
       </c>
       <c r="J68" s="144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K68" s="166">
         <v>63285</v>
@@ -14576,14 +14585,14 @@
     </row>
     <row r="69" spans="1:61">
       <c r="A69" s="141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" s="96"/>
       <c r="C69" s="142">
         <v>29585</v>
       </c>
       <c r="D69" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E69" s="247"/>
       <c r="F69" s="153"/>
@@ -14595,7 +14604,7 @@
         <v>54450</v>
       </c>
       <c r="J69" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K69" s="166">
         <v>54450</v>
@@ -14663,7 +14672,7 @@
         <v>50888</v>
       </c>
       <c r="D70" s="149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E70" s="104"/>
       <c r="F70" s="158"/>
@@ -14675,7 +14684,7 @@
         <v>325620</v>
       </c>
       <c r="J70" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K70" s="166">
         <v>325620</v>
@@ -14743,7 +14752,7 @@
         <v>29848</v>
       </c>
       <c r="D71" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E71" s="105"/>
       <c r="F71" s="158"/>
@@ -14755,7 +14764,7 @@
         <v>299225</v>
       </c>
       <c r="J71" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K71" s="166">
         <v>299225</v>
@@ -14823,7 +14832,7 @@
         <v>42910</v>
       </c>
       <c r="D72" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72" s="105"/>
       <c r="F72" s="158"/>
@@ -14835,7 +14844,7 @@
         <v>188825</v>
       </c>
       <c r="J72" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K72" s="166">
         <v>188825</v>
@@ -14903,19 +14912,19 @@
         <v>25872</v>
       </c>
       <c r="D73" s="149" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" s="105"/>
       <c r="F73" s="158"/>
       <c r="G73" s="154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H73" s="154"/>
       <c r="I73" s="97">
         <v>4000</v>
       </c>
       <c r="J73" s="97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73" s="166">
         <v>4000</v>
@@ -14983,19 +14992,19 @@
         <v>11025</v>
       </c>
       <c r="D74" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E74" s="105"/>
       <c r="F74" s="158"/>
       <c r="G74" s="154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H74" s="154"/>
       <c r="I74" s="97">
         <v>32425</v>
       </c>
       <c r="J74" s="144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K74" s="166">
         <v>32425</v>
@@ -15063,19 +15072,19 @@
         <v>22030</v>
       </c>
       <c r="D75" s="143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75" s="104"/>
       <c r="F75" s="158"/>
       <c r="G75" s="156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H75" s="156"/>
       <c r="I75" s="157">
         <v>10000</v>
       </c>
       <c r="J75" s="159" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K75" s="166">
         <v>10000</v>
@@ -15143,19 +15152,19 @@
         <v>26916</v>
       </c>
       <c r="D76" s="146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E76" s="104"/>
       <c r="F76" s="158"/>
       <c r="G76" s="154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H76" s="154"/>
       <c r="I76" s="97">
         <v>3000</v>
       </c>
       <c r="J76" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K76" s="166">
         <v>3000</v>
@@ -15216,26 +15225,26 @@
     </row>
     <row r="77" spans="1:61">
       <c r="A77" s="145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" s="96"/>
       <c r="C77" s="142">
         <v>32850</v>
       </c>
       <c r="D77" s="146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E77" s="104"/>
       <c r="F77" s="153"/>
       <c r="G77" s="154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H77" s="154"/>
       <c r="I77" s="97">
         <v>14500</v>
       </c>
       <c r="J77" s="97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K77" s="166">
         <v>14500</v>
@@ -15296,26 +15305,26 @@
     </row>
     <row r="78" spans="1:61">
       <c r="A78" s="145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" s="96"/>
       <c r="C78" s="142">
         <v>11790</v>
       </c>
       <c r="D78" s="146" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E78" s="104"/>
       <c r="F78" s="158"/>
       <c r="G78" s="154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H78" s="154"/>
       <c r="I78" s="97">
         <v>8000</v>
       </c>
       <c r="J78" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K78" s="166">
         <v>8000</v>
@@ -15450,14 +15459,14 @@
     </row>
     <row r="80" spans="1:61">
       <c r="A80" s="145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80" s="96"/>
       <c r="C80" s="142">
         <v>7000</v>
       </c>
       <c r="D80" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E80" s="104"/>
       <c r="F80" s="158"/>
@@ -15469,7 +15478,7 @@
         <v>8000</v>
       </c>
       <c r="J80" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K80" s="166">
         <v>8000</v>
@@ -15549,7 +15558,7 @@
         <v>50888</v>
       </c>
       <c r="J81" s="144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K81" s="166">
         <v>50888</v>
@@ -15610,14 +15619,14 @@
     </row>
     <row r="82" spans="1:61">
       <c r="A82" s="145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B82" s="96"/>
       <c r="C82" s="142">
         <v>20000</v>
       </c>
       <c r="D82" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E82" s="105"/>
       <c r="F82" s="162"/>
@@ -15629,7 +15638,7 @@
         <v>30848</v>
       </c>
       <c r="J82" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K82" s="166">
         <v>30848</v>
@@ -15697,7 +15706,7 @@
         <v>18000</v>
       </c>
       <c r="D83" s="149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" s="105"/>
       <c r="F83" s="162"/>
@@ -15709,7 +15718,7 @@
         <v>43910</v>
       </c>
       <c r="J83" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K83" s="166">
         <v>43910</v>
@@ -15777,7 +15786,7 @@
         <v>7000</v>
       </c>
       <c r="D84" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E84" s="105"/>
       <c r="F84" s="161"/>
@@ -15789,7 +15798,7 @@
         <v>25872</v>
       </c>
       <c r="J84" s="144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K84" s="166">
         <v>25872</v>
@@ -15857,7 +15866,7 @@
         <v>5000</v>
       </c>
       <c r="D85" s="146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="105"/>
       <c r="F85" s="161"/>
@@ -15869,7 +15878,7 @@
         <v>18920</v>
       </c>
       <c r="J85" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K85" s="166">
         <v>18920</v>
@@ -15930,14 +15939,14 @@
     </row>
     <row r="86" spans="1:61">
       <c r="A86" s="145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B86" s="96"/>
       <c r="C86" s="142">
         <v>21000</v>
       </c>
       <c r="D86" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E86" s="105"/>
       <c r="F86" s="158"/>
@@ -15949,7 +15958,7 @@
         <v>40540</v>
       </c>
       <c r="J86" s="144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K86" s="166">
         <v>40540</v>
@@ -16010,14 +16019,14 @@
     </row>
     <row r="87" spans="1:61">
       <c r="A87" s="145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="143"/>
       <c r="C87" s="142">
         <v>26190</v>
       </c>
       <c r="D87" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E87" s="104"/>
       <c r="F87" s="158"/>
@@ -16029,7 +16038,7 @@
         <v>22030</v>
       </c>
       <c r="J87" s="144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K87" s="166">
         <v>22030</v>
@@ -16090,14 +16099,14 @@
     </row>
     <row r="88" spans="1:61">
       <c r="A88" s="141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B88" s="96"/>
       <c r="C88" s="142">
         <v>12045</v>
       </c>
       <c r="D88" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88" s="104"/>
       <c r="F88" s="153"/>
@@ -16109,7 +16118,7 @@
         <v>26916</v>
       </c>
       <c r="J88" s="144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K88" s="166">
         <v>26916</v>
@@ -16170,14 +16179,14 @@
     </row>
     <row r="89" spans="1:61">
       <c r="A89" s="145" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B89" s="143"/>
       <c r="C89" s="142">
         <v>25650</v>
       </c>
       <c r="D89" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" s="104"/>
       <c r="F89" s="158"/>
@@ -16257,19 +16266,19 @@
         <v>29000</v>
       </c>
       <c r="D90" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E90" s="104"/>
       <c r="F90" s="158"/>
       <c r="G90" s="154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H90" s="154"/>
       <c r="I90" s="97">
         <v>2120</v>
       </c>
       <c r="J90" s="144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K90" s="166">
         <v>2120</v>
@@ -16330,14 +16339,14 @@
     </row>
     <row r="91" spans="1:61">
       <c r="A91" s="145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91" s="96"/>
       <c r="C91" s="142">
         <v>17890</v>
       </c>
       <c r="D91" s="146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E91" s="104"/>
       <c r="F91" s="158"/>
@@ -16410,14 +16419,14 @@
     </row>
     <row r="92" spans="1:61">
       <c r="A92" s="145" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B92" s="96"/>
       <c r="C92" s="142">
         <v>2000</v>
       </c>
       <c r="D92" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F92" s="158"/>
       <c r="G92" s="154" t="s">
@@ -16428,7 +16437,7 @@
         <v>18000</v>
       </c>
       <c r="J92" s="144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K92" s="166">
         <v>18000</v>
@@ -16507,7 +16516,7 @@
         <v>7240</v>
       </c>
       <c r="J93" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K93" s="166">
         <v>7240</v>
@@ -16575,7 +16584,7 @@
         <v>33650</v>
       </c>
       <c r="D94" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F94" s="153"/>
       <c r="G94" s="154" t="s">
@@ -16586,7 +16595,7 @@
         <v>5000</v>
       </c>
       <c r="J94" s="144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K94" s="166">
         <v>5000</v>
@@ -16652,14 +16661,14 @@
       <c r="D95" s="143"/>
       <c r="F95" s="158"/>
       <c r="G95" s="154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H95" s="154"/>
       <c r="I95" s="97">
         <v>37810</v>
       </c>
       <c r="J95" s="163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K95" s="166">
         <v>37810</v>
@@ -16725,14 +16734,14 @@
       <c r="D96" s="143"/>
       <c r="F96" s="162"/>
       <c r="G96" s="156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H96" s="156"/>
       <c r="I96" s="157">
         <v>8795</v>
       </c>
       <c r="J96" s="159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K96" s="166">
         <v>8795</v>
@@ -16798,14 +16807,14 @@
       <c r="D97" s="146"/>
       <c r="F97" s="162"/>
       <c r="G97" s="156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H97" s="156"/>
       <c r="I97" s="157">
         <v>11790</v>
       </c>
       <c r="J97" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K97" s="166">
         <v>11790</v>
@@ -16878,7 +16887,7 @@
         <v>30000</v>
       </c>
       <c r="J98" s="144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K98" s="166">
         <v>30000</v>
@@ -16944,14 +16953,14 @@
       <c r="D99" s="149"/>
       <c r="F99" s="162"/>
       <c r="G99" s="154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H99" s="154"/>
       <c r="I99" s="97">
         <v>13045</v>
       </c>
       <c r="J99" s="144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K99" s="166">
         <v>13045</v>
@@ -17090,14 +17099,14 @@
       <c r="D101" s="143"/>
       <c r="F101" s="162"/>
       <c r="G101" s="154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H101" s="154"/>
       <c r="I101" s="97">
         <v>20070</v>
       </c>
       <c r="J101" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K101" s="166">
         <v>20070</v>
@@ -17163,14 +17172,14 @@
       <c r="D102" s="143"/>
       <c r="F102" s="162"/>
       <c r="G102" s="156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H102" s="156"/>
       <c r="I102" s="157">
         <v>25000</v>
       </c>
       <c r="J102" s="159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K102" s="166">
         <v>25000</v>
@@ -17236,14 +17245,14 @@
       <c r="D103" s="143"/>
       <c r="F103" s="162"/>
       <c r="G103" s="154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H103" s="154"/>
       <c r="I103" s="97">
         <v>28000</v>
       </c>
       <c r="J103" s="144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K103" s="166">
         <v>28000</v>
@@ -17309,14 +17318,14 @@
       <c r="D104" s="143"/>
       <c r="F104" s="162"/>
       <c r="G104" s="154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H104" s="154"/>
       <c r="I104" s="97">
         <v>2160</v>
       </c>
       <c r="J104" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K104" s="166">
         <v>2160</v>
@@ -17374,7 +17383,7 @@
     </row>
     <row r="105" spans="1:61">
       <c r="A105" s="145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" s="143">
         <v>173992171</v>
@@ -17383,18 +17392,18 @@
         <v>17500</v>
       </c>
       <c r="D105" s="143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F105" s="162"/>
       <c r="G105" s="154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H105" s="154"/>
       <c r="I105" s="97">
         <v>5480</v>
       </c>
       <c r="J105" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K105" s="166">
         <v>5480</v>
@@ -17542,7 +17551,7 @@
         <v>36000</v>
       </c>
       <c r="J107" s="144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K107" s="166">
         <v>36000</v>
@@ -17613,14 +17622,14 @@
       </c>
       <c r="F108" s="162"/>
       <c r="G108" s="154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H108" s="154"/>
       <c r="I108" s="97">
         <v>19505</v>
       </c>
       <c r="J108" s="144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K108" s="166">
         <v>19505</v>
@@ -17687,18 +17696,18 @@
         <v>6870</v>
       </c>
       <c r="D109" s="143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F109" s="162"/>
       <c r="G109" s="154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H109" s="154"/>
       <c r="I109" s="97">
         <v>12620</v>
       </c>
       <c r="J109" s="144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K109" s="166">
         <v>12620</v>
@@ -17763,18 +17772,18 @@
         <v>800</v>
       </c>
       <c r="D110" s="143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F110" s="162"/>
       <c r="G110" s="156" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H110" s="156"/>
       <c r="I110" s="157">
         <v>4230</v>
       </c>
       <c r="J110" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K110" s="166">
         <v>4230</v>
@@ -17835,25 +17844,25 @@
     </row>
     <row r="111" spans="1:61">
       <c r="A111" s="141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" s="164"/>
       <c r="C111" s="142">
         <v>5000</v>
       </c>
       <c r="D111" s="143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F111" s="162"/>
       <c r="G111" s="154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H111" s="154"/>
       <c r="I111" s="97">
         <v>3400</v>
       </c>
       <c r="J111" s="144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K111" s="166">
         <v>3400</v>
@@ -17923,18 +17932,18 @@
         <v>2340</v>
       </c>
       <c r="D112" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F112" s="162"/>
       <c r="G112" s="156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H112" s="156"/>
       <c r="I112" s="157">
         <v>10345</v>
       </c>
       <c r="J112" s="157" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K112" s="166">
         <v>10345</v>
@@ -17995,25 +18004,25 @@
     </row>
     <row r="113" spans="1:61">
       <c r="A113" s="145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="143"/>
       <c r="C113" s="142">
         <v>17500</v>
       </c>
       <c r="D113" s="143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F113" s="162"/>
       <c r="G113" s="154" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H113" s="154"/>
       <c r="I113" s="97">
         <v>44000</v>
       </c>
       <c r="J113" s="97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K113" s="166">
         <v>44000</v>
@@ -18152,14 +18161,14 @@
       </c>
       <c r="F115" s="162"/>
       <c r="G115" s="154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H115" s="154"/>
       <c r="I115" s="97">
         <v>3640</v>
       </c>
       <c r="J115" s="144" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K115" s="166">
         <v>3640</v>
@@ -18220,7 +18229,7 @@
     </row>
     <row r="116" spans="1:61">
       <c r="A116" s="145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116" s="143">
         <v>1758900692</v>
@@ -18229,18 +18238,18 @@
         <v>30000</v>
       </c>
       <c r="D116" s="143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F116" s="162"/>
       <c r="G116" s="156" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H116" s="156"/>
       <c r="I116" s="157">
         <v>6000</v>
       </c>
       <c r="J116" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K116" s="166">
         <v>6000</v>
@@ -18379,7 +18388,7 @@
       <c r="D118" s="143"/>
       <c r="F118" s="162"/>
       <c r="G118" s="154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H118" s="154">
         <v>173992171</v>
@@ -18388,7 +18397,7 @@
         <v>17500</v>
       </c>
       <c r="J118" s="96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K118" s="166">
         <v>17500</v>
@@ -18534,14 +18543,14 @@
       <c r="D120" s="168"/>
       <c r="F120" s="158"/>
       <c r="G120" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H120" s="154"/>
       <c r="I120" s="97">
         <v>20000</v>
       </c>
       <c r="J120" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K120" s="166">
         <v>20000</v>
@@ -18696,7 +18705,7 @@
         <v>7300</v>
       </c>
       <c r="J122" s="159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K122" s="166">
         <v>7300</v>
@@ -18771,7 +18780,7 @@
         <v>800</v>
       </c>
       <c r="J123" s="159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K123" s="166">
         <v>800</v>
@@ -18837,14 +18846,14 @@
       <c r="D124" s="247"/>
       <c r="F124" s="158"/>
       <c r="G124" s="156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H124" s="156"/>
       <c r="I124" s="157">
         <v>10000</v>
       </c>
       <c r="J124" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K124" s="166">
         <v>10000</v>
@@ -18907,14 +18916,14 @@
       <c r="C125" s="177"/>
       <c r="F125" s="153"/>
       <c r="G125" s="156" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H125" s="156"/>
       <c r="I125" s="157">
         <v>1150</v>
       </c>
       <c r="J125" s="159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K125" s="166">
         <v>1150</v>
@@ -18980,14 +18989,14 @@
       <c r="D126" s="136"/>
       <c r="F126" s="158"/>
       <c r="G126" s="156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H126" s="156"/>
       <c r="I126" s="157">
         <v>5000</v>
       </c>
       <c r="J126" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K126" s="166">
         <v>5000</v>
@@ -19053,14 +19062,14 @@
       <c r="D127" s="136"/>
       <c r="F127" s="153"/>
       <c r="G127" s="172" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H127" s="172"/>
       <c r="I127" s="97">
         <v>1300</v>
       </c>
       <c r="J127" s="144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K127" s="166">
         <v>1300</v>
@@ -19135,7 +19144,7 @@
         <v>2340</v>
       </c>
       <c r="J128" s="144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K128" s="166">
         <v>2340</v>
@@ -19201,14 +19210,14 @@
       <c r="D129" s="136"/>
       <c r="F129" s="153"/>
       <c r="G129" s="154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H129" s="154"/>
       <c r="I129" s="97">
         <v>17500</v>
       </c>
       <c r="J129" s="144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K129" s="166">
         <v>17500</v>
@@ -19283,7 +19292,7 @@
         <v>5340</v>
       </c>
       <c r="J130" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K130" s="166">
         <v>5340</v>
@@ -19424,7 +19433,7 @@
       <c r="D132" s="184"/>
       <c r="F132" s="154"/>
       <c r="G132" s="154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H132" s="154">
         <v>1758900692</v>
@@ -19433,7 +19442,7 @@
         <v>30000</v>
       </c>
       <c r="J132" s="144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K132" s="166">
         <v>30000</v>
@@ -19568,14 +19577,14 @@
       <c r="C134" s="177"/>
       <c r="F134" s="158"/>
       <c r="G134" s="154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H134" s="154"/>
       <c r="I134" s="97">
         <v>500</v>
       </c>
       <c r="J134" s="144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K134" s="166">
         <v>500</v>
@@ -19637,16 +19646,16 @@
     <row r="135" spans="1:61">
       <c r="F135" s="154"/>
       <c r="G135" s="156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H135" s="156" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I135" s="157">
         <v>19600</v>
       </c>
       <c r="J135" s="144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K135" s="166">
         <v>19600</v>
@@ -19711,13 +19720,13 @@
         <v>44</v>
       </c>
       <c r="H136" s="156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I136" s="157">
         <v>1535</v>
       </c>
       <c r="J136" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136" s="166">
         <v>1535</v>
@@ -21324,13 +21333,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -21349,7 +21358,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
       <c r="A1" s="326" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="327"/>
       <c r="C1" s="327"/>
@@ -21360,7 +21369,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="329" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="330"/>
       <c r="C2" s="330"/>
@@ -21505,7 +21514,7 @@
       <c r="B6" s="67"/>
       <c r="C6" s="65"/>
       <c r="D6" s="285" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="239">
         <v>32746</v>
@@ -21616,7 +21625,7 @@
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="68">
         <v>34373</v>
@@ -21624,7 +21633,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="53"/>
       <c r="H9" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -21658,13 +21667,13 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="69">
         <v>1665346</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="27"/>
@@ -21694,7 +21703,7 @@
     </row>
     <row r="11" spans="1:29" ht="21.75">
       <c r="A11" s="264" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="71">
         <v>200000</v>
@@ -21821,7 +21830,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="238" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -21880,7 +21889,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="85">
         <v>44000</v>
@@ -21919,7 +21928,7 @@
     </row>
     <row r="17" spans="1:29" ht="21.75">
       <c r="A17" s="75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="86">
         <v>45990</v>
@@ -22033,7 +22042,7 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="278" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="279">
         <v>40450</v>
@@ -22071,7 +22080,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="278" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="279">
         <v>35070</v>
@@ -22154,7 +22163,7 @@
       </c>
       <c r="C23" s="284"/>
       <c r="D23" s="274" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="275">
         <v>90000</v>
